--- a/BOMs/Optics BOM.xlsx
+++ b/BOMs/Optics BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -51,16 +51,52 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Floppy disk filter</t>
-  </si>
-  <si>
-    <t>http://www.secucity.com/KLB_2500_p/klb-2500.htm</t>
-  </si>
-  <si>
     <t>Modified for VSYNC and M12 lenses</t>
   </si>
   <si>
-    <t>3D printable?</t>
+    <t>http://www.m12lenses.com/ProductDetails.asp?ProductCode=PT-2520&amp;CartID=1</t>
+  </si>
+  <si>
+    <t>18mm hole spacing</t>
+  </si>
+  <si>
+    <t>http://www.m12lenses.com/Plastic-M12-Lens-Holder-p/pt-lh008p.htm</t>
+  </si>
+  <si>
+    <t>92482A147</t>
+  </si>
+  <si>
+    <t>Part number</t>
+  </si>
+  <si>
+    <t>McMaster-Carr</t>
+  </si>
+  <si>
+    <t>#000-120x1/4" screws</t>
+  </si>
+  <si>
+    <t>Only needed for 3D-printed M12 mount.</t>
+  </si>
+  <si>
+    <t>http://www.thingiverse.com/thing:83754?save=success</t>
+  </si>
+  <si>
+    <t>-- or -- 3D-printable</t>
+  </si>
+  <si>
+    <t>Band-pass filter (940nm)</t>
+  </si>
+  <si>
+    <t>-- or -- High-pass filter</t>
+  </si>
+  <si>
+    <t>-- or -- DIY filter (floppy disk, VHS, exposed film)</t>
+  </si>
+  <si>
+    <t>http://peauproductions.com/store/index.php?main_page=product_info&amp;cPath=2_12&amp;products_id=23</t>
+  </si>
+  <si>
+    <t>http://peauproductions.com/store/index.php?main_page=product_info&amp;cPath=2_12&amp;products_id=88</t>
   </si>
 </sst>
 </file>
@@ -70,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,14 +115,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -142,16 +170,18 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -455,20 +485,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,15 +516,18 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3">
         <v>22</v>
@@ -502,89 +536,166 @@
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <f>C2+D2</f>
+        <f t="shared" ref="E2:E9" si="0">C2+D2</f>
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>6.82</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="0"/>
+        <v>9.82</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <f>C3+D3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
+        <v>13.23</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6.38</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>19.61</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>16.2</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <f>C4+D4</f>
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <f>C5+D5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3">
-        <f>SUM(E2:E5)</f>
-        <v>40</v>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6.38</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>6.38</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
